--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44489AD3-3B0D-4949-9065-A9F8F987C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>usernameASP</t>
+  </si>
+  <si>
+    <t>passwordASP</t>
+  </si>
+  <si>
+    <t>Tuan@728</t>
+  </si>
+  <si>
+    <t>0906249919</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +57,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +97,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +391,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{897A2366-F7C1-4CF2-9201-AE5CD00A8DB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44489AD3-3B0D-4949-9065-A9F8F987C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>usernameASP</t>
-  </si>
-  <si>
-    <t>passwordASP</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Birmingham, Manchester</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>Tuan@728</t>
   </si>
   <si>
-    <t>0906249919</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,7 +81,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,18 +97,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,23 +384,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -416,23 +407,35 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>906249919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{897A2366-F7C1-4CF2-9201-AE5CD00A8DB8}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{23F7ED15-0947-437E-A4B3-96A77DD27BDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Birmingham, Manchester</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Tuan@728</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +63,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +95,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +383,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>906249919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{23F7ED15-0947-437E-A4B3-96A77DD27BDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725896A8-B044-47F0-AE7E-47BA23B09611}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>KEY</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>0906249919</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,7 +391,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,8 +427,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>906249919</v>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725896A8-B044-47F0-AE7E-47BA23B09611}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D973F45-DF01-449D-AE40-DC2EC245ABA9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Birmingham, Manchester</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>0906249919</t>
+  </si>
+  <si>
+    <t>importFile</t>
+  </si>
+  <si>
+    <t>C:\Users\hagau\OneDrive\Documents\UiPath\RPA_AmberMuaHang\Output\Danh muc NCC mau.xlsx</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,31 +409,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D973F45-DF01-449D-AE40-DC2EC245ABA9}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C092502A-E7FD-4EF2-B43A-D982C089BE36}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>KEY</t>
   </si>
@@ -33,25 +33,22 @@
     <t>Value</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Tuan@728</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>0906249919</t>
   </si>
   <si>
-    <t>importFile</t>
-  </si>
-  <si>
     <t>C:\Users\hagau\OneDrive\Documents\UiPath\RPA_AmberMuaHang\Output\Danh muc NCC mau.xlsx</t>
+  </si>
+  <si>
+    <t>supplierFileAddress</t>
+  </si>
+  <si>
+    <t>passwordASP</t>
+  </si>
+  <si>
+    <t>usernameASP</t>
   </si>
 </sst>
 </file>
@@ -102,11 +99,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,52 +400,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4C1ED636-FA3C-4E09-80AC-7D1AB68B4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C092502A-E7FD-4EF2-B43A-D982C089BE36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D7DB5-31A5-4BFF-B1C0-7080EF4A277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>0906249919</t>
   </si>
   <si>
-    <t>C:\Users\hagau\OneDrive\Documents\UiPath\RPA_AmberMuaHang\Output\Danh muc NCC mau.xlsx</t>
-  </si>
-  <si>
     <t>supplierFileAddress</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>usernameASP</t>
+  </si>
+  <si>
+    <t>D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\Danh muc NCC mau.xlsx</t>
   </si>
 </sst>
 </file>
@@ -101,10 +101,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,17 +420,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D7DB5-31A5-4BFF-B1C0-7080EF4A277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>usernameASP</t>
   </si>
   <si>
-    <t>D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\Danh muc NCC mau.xlsx</t>
+    <t>Output\Danh muc NCC mau.xlsx</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -67,7 +67,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -406,13 +406,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7261EE2-7786-4900-9380-BBDD0C2B884A}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>KEY</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Output\Danh muc NCC mau.xlsx</t>
+  </si>
+  <si>
+    <t>vthhFileAddress</t>
+  </si>
+  <si>
+    <t>Output\Danh muc VTHH.xlsx</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -67,7 +73,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -400,19 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -428,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -436,12 +442,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7261EE2-7786-4900-9380-BBDD0C2B884A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C77F7187-3D0B-4B09-9B7E-504110F02653}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>KEY</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Output\Danh muc VTHH.xlsx</t>
+  </si>
+  <si>
+    <t>mhFileAddress</t>
+  </si>
+  <si>
+    <t>Output\Mua_hang_trong_nuoc.xlsx</t>
   </si>
 </sst>
 </file>
@@ -406,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -456,6 +462,14 @@
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,152 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B0A916E0-4D12-46CE-A85E-647D9CC77981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C77F7187-3D0B-4B09-9B7E-504110F02653}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1C9E0-9F9D-464E-93CA-69C6AC4282D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Config" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Tuan@728</t>
-  </si>
-  <si>
-    <t>0906249919</t>
-  </si>
-  <si>
-    <t>supplierFileAddress</t>
-  </si>
-  <si>
-    <t>passwordASP</t>
-  </si>
-  <si>
-    <t>usernameASP</t>
-  </si>
-  <si>
-    <t>Output\Danh muc NCC mau.xlsx</t>
-  </si>
-  <si>
-    <t>vthhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Danh muc VTHH.xlsx</t>
-  </si>
-  <si>
-    <t>mhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Mua_hang_trong_nuoc.xlsx</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supplierFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Danh muc NCC mau.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwordASP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuan@728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usernameASP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0906249919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vthhFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Danh muc VTHH.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Mua_hang_trong_nuoc.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dayUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/24/2023 16:34:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uploadFolderName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-07-2023</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,71 +462,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{23F7ED15-0947-437E-A4B3-96A77DD27BDC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B9"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B3" sqref="B3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="27.554688" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="45.21875" style="2" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" customFormat="1" ht="18.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="B3" r:id="rId7"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{10A1C9E0-9F9D-464E-93CA-69C6AC4282D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFB2EA2-3F6E-425F-94A5-112941D07FFF}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{10A1C9E0-9F9D-464E-93CA-69C6AC4282D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFBC9DA1-18E1-4F63-A8EB-9CCFFF5A5592}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3168" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>KEY</t>
   </si>
@@ -79,13 +79,25 @@
   </si>
   <si>
     <t>Output\Mua_hang_trong_nuoc.xls</t>
+  </si>
+  <si>
+    <t>usernameThue</t>
+  </si>
+  <si>
+    <t>0106777886-ql</t>
+  </si>
+  <si>
+    <t>passwordThue</t>
+  </si>
+  <si>
+    <t>TCT@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -152,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,10 +536,27 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{10A1C9E0-9F9D-464E-93CA-69C6AC4282D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFBC9DA1-18E1-4F63-A8EB-9CCFFF5A5592}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652ADA43-BD1D-4FE4-8812-242E22FBC2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3168" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>KEY</t>
   </si>
@@ -60,25 +60,22 @@
     <t>mhFileAddress</t>
   </si>
   <si>
+    <t>Output\Mua_hang_trong_nuoc.xls</t>
+  </si>
+  <si>
     <t>stage</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>dayUpdate</t>
   </si>
   <si>
-    <t>07/24/2023 16:34:52</t>
+    <t>07/28/2023 12:20:09</t>
   </si>
   <si>
     <t>uploadFolderName</t>
   </si>
   <si>
-    <t>24-07-2023</t>
-  </si>
-  <si>
-    <t>Output\Mua_hang_trong_nuoc.xls</t>
+    <t>28-07-2023</t>
   </si>
   <si>
     <t>usernameThue</t>
@@ -91,6 +88,18 @@
   </si>
   <si>
     <t>TCT@123</t>
+  </si>
+  <si>
+    <t>mailPhuTrach</t>
+  </si>
+  <si>
+    <t>kemclone1@gmail.com</t>
+  </si>
+  <si>
+    <t>mailKhachHang</t>
+  </si>
+  <si>
+    <t>kemclone3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +118,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,10 +173,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -472,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -480,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,23 +513,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -528,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -536,27 +545,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652ADA43-BD1D-4FE4-8812-242E22FBC2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEB3FCC-22F7-4741-A6BE-816B684031FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>dayUpdate</t>
-  </si>
-  <si>
     <t>07/28/2023 12:20:09</t>
   </si>
   <si>
@@ -96,10 +93,13 @@
     <t>kemclone1@gmail.com</t>
   </si>
   <si>
-    <t>mailKhachHang</t>
-  </si>
-  <si>
     <t>kemclone3@gmail.com</t>
+  </si>
+  <si>
+    <t>createdDay</t>
+  </si>
+  <si>
+    <t>mailAmber</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,55 +526,55 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEB3FCC-22F7-4741-A6BE-816B684031FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61A817-49CA-4390-B035-67FD2124696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2736" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>KEY</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>mailAmber</t>
+  </si>
+  <si>
+    <t>nccFileAddress</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,6 +580,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61A817-49CA-4390-B035-67FD2124696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17753D-E444-4CDB-85AC-6B429617A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2736" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>KEY</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>nccFileAddress</t>
+  </si>
+  <si>
+    <t>maSoThue</t>
+  </si>
+  <si>
+    <t>0106777886</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,6 +189,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,6 +597,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17753D-E444-4CDB-85AC-6B429617A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503F176-F106-47F3-9D3F-77B462024D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2736" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>KEY</t>
   </si>
@@ -66,13 +66,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>07/28/2023 12:20:09</t>
+    <t>createdDay</t>
+  </si>
+  <si>
+    <t>08/03/2023 10:14:47</t>
   </si>
   <si>
     <t>uploadFolderName</t>
   </si>
   <si>
-    <t>28-07-2023</t>
+    <t>DanhSachHHVT 03/08/2023</t>
   </si>
   <si>
     <t>usernameThue</t>
@@ -93,16 +96,10 @@
     <t>kemclone1@gmail.com</t>
   </si>
   <si>
+    <t>mailAmber</t>
+  </si>
+  <si>
     <t>kemclone3@gmail.com</t>
-  </si>
-  <si>
-    <t>createdDay</t>
-  </si>
-  <si>
-    <t>mailAmber</t>
-  </si>
-  <si>
-    <t>nccFileAddress</t>
   </si>
   <si>
     <t>maSoThue</t>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,71 +535,63 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD9C59-E0AB-4F1B-83CA-3C23F533CA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315107B-5D1B-4E09-AB0E-F0103609286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>createdDay</t>
   </si>
   <si>
-    <t>08/03/2023 10:14:47</t>
+    <t>08/08/2023 14:54:28</t>
   </si>
   <si>
     <t>uploadFolderName</t>
   </si>
   <si>
-    <t>DanhSachHHVT 03/08/2023</t>
+    <t>DanhSachHHVT 08/08/2023</t>
   </si>
   <si>
     <t>usernameThue</t>
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -594,6 +594,9 @@
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315107B-5D1B-4E09-AB0E-F0103609286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1444148-76E6-4C86-A5CE-9BC66218B1C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,15 +70,12 @@
     <t>createdDay</t>
   </si>
   <si>
-    <t>08/08/2023 14:54:28</t>
+    <t>08/15/2023 10:46:16</t>
   </si>
   <si>
     <t>uploadFolderName</t>
   </si>
   <si>
-    <t>DanhSachHHVT 08/08/2023</t>
-  </si>
-  <si>
     <t>usernameThue</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>0106777886</t>
+  </si>
+  <si>
+    <t>123456-DanhSachHHVT15/08/2023</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,16 +180,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,7 +475,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,10 +485,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -552,47 +553,47 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -601,8 +602,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{67B14E72-6303-4B56-84F3-B996DEEA72C7}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{0898DFA5-A9B0-48D9-BF4B-871D1B6F8DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F392A4-86C1-4A7B-BCC2-F7B613C54505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761D448-D2D3-45BE-9EA2-F893A3B4AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
@@ -105,10 +105,10 @@
     <t>0906249919</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0106777886</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761D448-D2D3-45BE-9EA2-F893A3B4AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257BC3CA-AE24-4A3A-A3B1-8F27405F6EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>0106777886</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,175 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257BC3CA-AE24-4A3A-A3B1-8F27405F6EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Config" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>supplierFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Danh muc NCC mau.xlsx</t>
-  </si>
-  <si>
-    <t>passwordASP</t>
-  </si>
-  <si>
-    <t>Tuan@728</t>
-  </si>
-  <si>
-    <t>usernameASP</t>
-  </si>
-  <si>
-    <t>vthhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Danh muc VTHH.xlsx</t>
-  </si>
-  <si>
-    <t>mhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Mua_hang_trong_nuoc.xls</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>createdDay</t>
-  </si>
-  <si>
-    <t>08/15/2023 10:46:16</t>
-  </si>
-  <si>
-    <t>uploadFolderName</t>
-  </si>
-  <si>
-    <t>123456-DanhSachHHVT15/08/2023</t>
-  </si>
-  <si>
-    <t>usernameThue</t>
-  </si>
-  <si>
-    <t>0106777886-ql</t>
-  </si>
-  <si>
-    <t>passwordThue</t>
-  </si>
-  <si>
-    <t>TCT@123</t>
-  </si>
-  <si>
-    <t>mailPhuTrach</t>
-  </si>
-  <si>
-    <t>kemclone1@gmail.com</t>
-  </si>
-  <si>
-    <t>mailAmber</t>
-  </si>
-  <si>
-    <t>kemclone3@gmail.com</t>
-  </si>
-  <si>
-    <t>maSoThue</t>
-  </si>
-  <si>
-    <t>0906249919</t>
-  </si>
-  <si>
-    <t>0106777886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supplierFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Danh muc NCC mau.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwordASP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuan@728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usernameASP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0906249919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vthhFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Danh muc VTHH.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhFileAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output\Mua_hang_trong_nuoc.xls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>createdDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/24/2023 17:14:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uploadFolderName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DanhSachHHVT 24/08/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usernameThue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0106777886-ql</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwordThue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TCT@123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mailPhuTrach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kemclone1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mailAmber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kemclone3@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maSoThue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0106777886</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:charset val="163"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.59999389629810485"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,132 +488,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB41FF8-57D3-47CD-BEBD-EFDC3C5A711D}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{EEB41FF8-57D3-47CD-BEBD-EFDC3C5A711D}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B14"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D8" sqref="D8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="20.554688" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.886719" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D713633-00F0-47AB-85D2-3916227FC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF98A8B-17FD-49A6-9A47-3C027F64FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="804" windowWidth="17820" windowHeight="11436" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>KEY</t>
   </si>
@@ -108,7 +108,25 @@
     <t>0106777886</t>
   </si>
   <si>
+    <t>vthhBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\VTHH</t>
+  </si>
+  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>nccBackupFolder</t>
+  </si>
+  <si>
+    <t>mhBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\NCC</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\MuaHang</t>
   </si>
 </sst>
 </file>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB41FF8-57D3-47CD-BEBD-EFDC3C5A711D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,6 +609,30 @@
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF98A8B-17FD-49A6-9A47-3C027F64FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF102867-0B62-4ADC-894C-0E242D6E76A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>KEY</t>
   </si>
@@ -69,13 +69,13 @@
     <t>createdDay</t>
   </si>
   <si>
-    <t>08/24/2023 17:14:27</t>
+    <t>09/11/2023 14:55:09</t>
   </si>
   <si>
     <t>uploadFolderName</t>
   </si>
   <si>
-    <t>DanhSachHHVT 24/08/2023</t>
+    <t>DanhSachHHVT 11/09/2023</t>
   </si>
   <si>
     <t>usernameThue</t>
@@ -114,19 +114,19 @@
     <t>BackupFileOutput\VTHH</t>
   </si>
   <si>
+    <t>nccBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\NCC</t>
+  </si>
+  <si>
+    <t>mhBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\MuaHang</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>nccBackupFolder</t>
-  </si>
-  <si>
-    <t>mhBackupFolder</t>
-  </si>
-  <si>
-    <t>BackupFileOutput\NCC</t>
-  </si>
-  <si>
-    <t>BackupFileOutput\MuaHang</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,10 +621,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF102867-0B62-4ADC-894C-0E242D6E76A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB811E-ABEC-4D55-8621-018FACFB1CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>KEY</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>BackupFileOutput\MuaHang</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>monthBegin</t>
+  </si>
+  <si>
+    <t>monthEnd</t>
   </si>
   <si>
     <t>1</t>
@@ -487,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB41FF8-57D3-47CD-BEBD-EFDC3C5A711D}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -552,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,6 +645,22 @@
       </c>
       <c r="B17" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4409B4E-7D64-441F-9B02-0DBECBD2BF1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F00A87-42CF-49CB-9943-E57B3C10C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
+    <workbookView xWindow="2100" yWindow="12" windowWidth="17820" windowHeight="11436" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>KEY</t>
   </si>
@@ -33,115 +33,124 @@
     <t>Value</t>
   </si>
   <si>
+    <t>supplierFileAddress</t>
+  </si>
+  <si>
+    <t>Output\Danh muc NCC mau.xlsx</t>
+  </si>
+  <si>
+    <t>passwordASP</t>
+  </si>
+  <si>
+    <t>Tuan@728</t>
+  </si>
+  <si>
+    <t>usernameASP</t>
+  </si>
+  <si>
+    <t>0906249919</t>
+  </si>
+  <si>
+    <t>vthhFileAddress</t>
+  </si>
+  <si>
+    <t>Output\Danh muc VTHH.xlsx</t>
+  </si>
+  <si>
+    <t>mhFileAddress</t>
+  </si>
+  <si>
+    <t>Output\Mua_hang_trong_nuoc.xls</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>createdDay</t>
+  </si>
+  <si>
+    <t>10/04/2023 14:37:46</t>
+  </si>
+  <si>
+    <t>uploadFolderName</t>
+  </si>
+  <si>
+    <t>DanhSachHHVT 04/10/2023</t>
+  </si>
+  <si>
+    <t>usernameThue</t>
+  </si>
+  <si>
+    <t>0106777886-ql</t>
+  </si>
+  <si>
+    <t>passwordThue</t>
+  </si>
+  <si>
+    <t>TCT@123</t>
+  </si>
+  <si>
+    <t>mailPhuTrach</t>
+  </si>
+  <si>
+    <t>tungtungy2000@gmail.com</t>
+  </si>
+  <si>
+    <t>mailAmber</t>
+  </si>
+  <si>
+    <t>tungtuny2000@gmail.com</t>
+  </si>
+  <si>
+    <t>maSoThue</t>
+  </si>
+  <si>
+    <t>0106777886</t>
+  </si>
+  <si>
+    <t>vthhBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\VTHH</t>
+  </si>
+  <si>
+    <t>nccBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\NCC</t>
+  </si>
+  <si>
+    <t>mhBackupFolder</t>
+  </si>
+  <si>
+    <t>BackupFileOutput\MuaHang</t>
+  </si>
+  <si>
+    <t>monthBegin</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>monthEnd</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>Mô tả</t>
   </si>
   <si>
-    <t>supplierFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Danh muc NCC mau.xlsx</t>
-  </si>
-  <si>
-    <t>passwordASP</t>
-  </si>
-  <si>
-    <t>Tuan@728</t>
-  </si>
-  <si>
-    <t>usernameASP</t>
-  </si>
-  <si>
-    <t>0906249919</t>
-  </si>
-  <si>
-    <t>vthhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Danh muc VTHH.xlsx</t>
-  </si>
-  <si>
-    <t>mhFileAddress</t>
-  </si>
-  <si>
-    <t>Output\Mua_hang_trong_nuoc.xls</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>createdDay</t>
-  </si>
-  <si>
-    <t>10/04/2023 14:37:46</t>
-  </si>
-  <si>
-    <t>uploadFolderName</t>
-  </si>
-  <si>
-    <t>DanhSachHHVT 04/10/2023</t>
-  </si>
-  <si>
-    <t>usernameThue</t>
-  </si>
-  <si>
-    <t>0106777886-ql</t>
-  </si>
-  <si>
-    <t>passwordThue</t>
-  </si>
-  <si>
-    <t>TCT@123</t>
-  </si>
-  <si>
-    <t>mailPhuTrach</t>
-  </si>
-  <si>
-    <t>tungtungy2000@gmail.com</t>
-  </si>
-  <si>
     <t>Thông tin địa chỉ mail của người phụ trách.</t>
   </si>
   <si>
-    <t>mailAmber</t>
-  </si>
-  <si>
     <t>Thông tin địa chỉ mail khách hàng (Trong trường hợp gửi mail thông báo điền mã VTHH)</t>
   </si>
   <si>
-    <t>maSoThue</t>
-  </si>
-  <si>
-    <t>0106777886</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thông tin mã số thuế của công ty cần xử lý dữ liệu</t>
   </si>
   <si>
-    <t>vthhBackupFolder</t>
-  </si>
-  <si>
-    <t>BackupFileOutput\VTHH</t>
-  </si>
-  <si>
-    <t>nccBackupFolder</t>
-  </si>
-  <si>
-    <t>BackupFileOutput\NCC</t>
-  </si>
-  <si>
-    <t>mhBackupFolder</t>
-  </si>
-  <si>
-    <t>BackupFileOutput\MuaHang</t>
-  </si>
-  <si>
-    <t>monthBegin</t>
-  </si>
-  <si>
-    <t>monthEnd</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -194,11 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,177 +527,178 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="72.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E46BBE-D84E-4734-AC33-AE40F859DE02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED57B8E-BF74-47AB-B82E-6AA132E590B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{85067F95-7452-4B0E-89F8-0D85CF57B6E6}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>KEY</x:t>
   </x:si>
@@ -76,13 +76,13 @@
     <x:t>createdDay</x:t>
   </x:si>
   <x:si>
-    <x:t>10/06/2023 14:37:46</x:t>
+    <x:t>10/19/2023 16:26:14</x:t>
   </x:si>
   <x:si>
     <x:t>uploadFolderName</x:t>
   </x:si>
   <x:si>
-    <x:t>DanhSachHHVT 06/10/2023</x:t>
+    <x:t>DanhSachHHVT 19/10/2023</x:t>
   </x:si>
   <x:si>
     <x:t>usernameThue</x:t>
@@ -142,7 +142,13 @@
     <x:t>monthBegin</x:t>
   </x:si>
   <x:si>
+    <x:t>01</x:t>
+  </x:si>
+  <x:si>
     <x:t>monthEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -218,7 +224,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <x:xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -543,7 +549,7 @@
   <x:dimension ref="A1:C19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C9" sqref="C9"/>
+      <x:selection activeCell="B8" sqref="B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,16 +710,16 @@
       <x:c r="A18" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="n">
-        <x:v>6</x:v>
+      <x:c r="B18" s="0" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
